--- a/tocomdorondevou_API/resources/relatorios/relatorio2021_7.xlsx
+++ b/tocomdorondevou_API/resources/relatorios/relatorio2021_7.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -350,6 +350,189 @@
   </si>
   <si>
     <t>2021-07-28T01:40:54.000-03:00</t>
+  </si>
+  <si>
+    <t>101110000000|55|</t>
+  </si>
+  <si>
+    <t>2021-07-28T22:29:29.000-03:00</t>
+  </si>
+  <si>
+    <t>111110000000|60|</t>
+  </si>
+  <si>
+    <t>2021-07-28T22:37:22.000-03:00</t>
+  </si>
+  <si>
+    <t>000111111000|66|0.1.2.3.</t>
+  </si>
+  <si>
+    <t>2021-07-28T22:44:44.000-03:00</t>
+  </si>
+  <si>
+    <t>2021-07-28T22:45:22.000-03:00</t>
+  </si>
+  <si>
+    <t>111010100000|66|0.</t>
+  </si>
+  <si>
+    <t>2021-07-28T22:45:45.000-03:00</t>
+  </si>
+  <si>
+    <t>111000000000|30|0.1.</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:41:42.000-03:00</t>
+  </si>
+  <si>
+    <t>000000000000|30|0.1.</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:42:41.000-03:00</t>
+  </si>
+  <si>
+    <t>000000000000|30|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:43:51.000-03:00</t>
+  </si>
+  <si>
+    <t>110000000000|30|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:43:59.000-03:00</t>
+  </si>
+  <si>
+    <t>100000000000|30|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:44:09.000-03:00</t>
+  </si>
+  <si>
+    <t>111110000000|30|0.1.</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:44:27.000-03:00</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:46:12.000-03:00</t>
+  </si>
+  <si>
+    <t>000000000100|30|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:46:26.000-03:00</t>
+  </si>
+  <si>
+    <t>100000000100|30|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:46:46.000-03:00</t>
+  </si>
+  <si>
+    <t>100000000100|61|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:47:00.000-03:00</t>
+  </si>
+  <si>
+    <t>100000000100|71|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:47:07.000-03:00</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:48:09.000-03:00</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:48:24.000-03:00</t>
+  </si>
+  <si>
+    <t>000000000100|30|0.</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:48:35.000-03:00</t>
+  </si>
+  <si>
+    <t>000000100100|30|0.</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:48:52.000-03:00</t>
+  </si>
+  <si>
+    <t>000010100000|70|0.</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:49:26.000-03:00</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:52:23.000-03:00</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:52:32.000-03:00</t>
+  </si>
+  <si>
+    <t>000010000100|30|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:52:52.000-03:00</t>
+  </si>
+  <si>
+    <t>001110000100|30|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:53:05.000-03:00</t>
+  </si>
+  <si>
+    <t>000110000000|71|</t>
+  </si>
+  <si>
+    <t>2021-07-28T23:53:35.000-03:00</t>
+  </si>
+  <si>
+    <t>111111000000|77|</t>
+  </si>
+  <si>
+    <t>2021-07-29T00:07:57.000-03:00</t>
+  </si>
+  <si>
+    <t>111111110000|50|</t>
+  </si>
+  <si>
+    <t>2021-07-29T00:09:41.000-03:00</t>
+  </si>
+  <si>
+    <t>110000000000|50|</t>
+  </si>
+  <si>
+    <t>2021-07-29T00:10:12.000-03:00</t>
+  </si>
+  <si>
+    <t>011100011000|363|4.5.6.</t>
+  </si>
+  <si>
+    <t>2021-07-30T13:23:43.000-03:00</t>
+  </si>
+  <si>
+    <t>2021-07-30T13:23:57.000-03:00</t>
+  </si>
+  <si>
+    <t>111100000000|23|</t>
+  </si>
+  <si>
+    <t>2021-07-30T13:24:04.000-03:00</t>
+  </si>
+  <si>
+    <t>111001000000|23|0.1.2.</t>
+  </si>
+  <si>
+    <t>2021-07-30T13:25:15.000-03:00</t>
+  </si>
+  <si>
+    <t>111110010000|24|2.5.</t>
+  </si>
+  <si>
+    <t>2021-07-30T13:25:27.000-03:00</t>
   </si>
 </sst>
 </file>
@@ -389,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1959,6 +2142,788 @@
         <v>112</v>
       </c>
     </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>-22.00760269165039</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>-47.910377502441406</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>-22.005842208862305</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>-47.89518356323242</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>-22.005842208862305</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>-47.89518356323242</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>-22.005842208862305</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>-47.89518356323242</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>-22.005842208862305</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>-47.89518356323242</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>-22.00580596923828</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>-47.89522171020508</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>-22.00580596923828</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>-47.89522171020508</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>-22.00585174560547</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>-47.89519119262695</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>-22.005830764770508</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>-47.89521789550781</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>-22.005830764770508</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>-47.89521789550781</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>-22.005830764770508</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>-47.89521789550781</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>-22.005830764770508</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>-47.89521789550781</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>-22.005830764770508</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>-47.89521789550781</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>-22.0058650970459</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>-47.89522933959961</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>-22.0058650970459</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>-47.89522933959961</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>-22.0058650970459</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>-47.89522933959961</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>-22.100446701049805</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>-47.82636260986328</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>-22.100446701049805</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>-47.82636260986328</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>-22.100446701049805</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>-47.82636260986328</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>-22.100446701049805</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>-47.82636260986328</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>-21.99397087097168</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>-47.897857666015625</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>2131820683</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
